--- a/docs/extension-complex.xlsx
+++ b/docs/extension-complex.xlsx
@@ -286,7 +286,7 @@
     <t>Extension.extension.valueString</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/ig-sampler/StructureDefinition/extension-complex"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.fhir.org/guides/sampler2/StructureDefinition/extension-complex"/&gt;</t>
   </si>
   <si>
     <t>base64Binary
